--- a/Test/Lawnmower/T2/Sensors_data_1000031.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000031.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.945443201333986</v>
+        <v>0.9938472309546665</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002170398720898405</v>
+        <v>0.0003489391668066808</v>
       </c>
       <c r="E2" t="n">
-        <v>0.364284344671063</v>
+        <v>0.1235692158277072</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9001777531837167</v>
+        <v>0.9936045236861436</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002175095446874767</v>
+        <v>0.0002412364297040936</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5184195390074644</v>
+        <v>0.3551787996749358</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,68 +525,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3165278690321421</v>
+        <v>0.6447242126421504</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03876144125650138</v>
+        <v>0.01472667685920602</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4483300117092963</v>
+        <v>0.3070863645182872</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9841986600605793</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0005960242278230007</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3780482859508686</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9170941667263696</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.003436562410976218</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3094389818442168</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
